--- a/Interflow/AT指令集_MQTT_ED2.xlsx
+++ b/Interflow/AT指令集_MQTT_ED2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choulei\Desktop\24款采集器HY-RS485-MBUS-22\MQTT采集终端\NET_4G_MQTT_Project\Interflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\git_room\WorkSpace\WT2024_特殊定制_MQTT采集终端\MQTT采集终端\NET_4G_MQTT_Project\Interflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF5BF0-C1BA-4221-94F7-F976395B8D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2669AD-B1F5-40F2-A4D4-BB5EFFA2CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT指令表" sheetId="1" r:id="rId1"/>
@@ -1037,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1058,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1136,6 +1142,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1421,18 +1430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="50" style="3" customWidth="1"/>
     <col min="8" max="8" width="58.75" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.5" style="5" bestFit="1" customWidth="1"/>
@@ -1817,7 +1826,7 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1847,7 +1856,7 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1877,7 +1886,7 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -1907,7 +1916,7 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="17" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1937,7 +1946,7 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="17" t="s">
         <v>201</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1967,7 +1976,7 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -1997,7 +2006,7 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H19" s="4"/>
@@ -2025,7 +2034,7 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H20" s="4"/>
@@ -2053,7 +2062,7 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="17" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="6"/>
@@ -2081,7 +2090,7 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H22" s="6"/>
@@ -2109,7 +2118,7 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="17" t="s">
         <v>104</v>
       </c>
       <c r="H23" s="6"/>
@@ -2137,7 +2146,7 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="17" t="s">
         <v>105</v>
       </c>
       <c r="H24" s="6"/>
@@ -2165,7 +2174,7 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H25" s="6"/>
@@ -2193,7 +2202,7 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="17" t="s">
         <v>107</v>
       </c>
       <c r="H26" s="6"/>
@@ -2221,7 +2230,7 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="17" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="6"/>
